--- a/bin/file2.xlsx
+++ b/bin/file2.xlsx
@@ -6,13 +6,118 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="About Information" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+  <si>
+    <t>ayse</t>
+  </si>
+  <si>
+    <t>besli0</t>
+  </si>
+  <si>
+    <t>aysebesli</t>
+  </si>
+  <si>
+    <t>ayse@abc.com</t>
+  </si>
+  <si>
+    <t>halil</t>
+  </si>
+  <si>
+    <t>besli1</t>
+  </si>
+  <si>
+    <t>halilbesli</t>
+  </si>
+  <si>
+    <t>halil@abc.com</t>
+  </si>
+  <si>
+    <t>mehmet</t>
+  </si>
+  <si>
+    <t>besli2</t>
+  </si>
+  <si>
+    <t>mbesli</t>
+  </si>
+  <si>
+    <t>mehmet@abc.com</t>
+  </si>
+  <si>
+    <t>osman</t>
+  </si>
+  <si>
+    <t>besli3</t>
+  </si>
+  <si>
+    <t>osmanbesli</t>
+  </si>
+  <si>
+    <t>osman@abc.com</t>
+  </si>
+  <si>
+    <t>ilyas</t>
+  </si>
+  <si>
+    <t>besli4</t>
+  </si>
+  <si>
+    <t>ilyasbesli</t>
+  </si>
+  <si>
+    <t>ilyas@abc.com</t>
+  </si>
+  <si>
+    <t>feyzullah</t>
+  </si>
+  <si>
+    <t>besli5</t>
+  </si>
+  <si>
+    <t>feyzullahbesli</t>
+  </si>
+  <si>
+    <t>feyzullah@abc.com</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>besli6</t>
+  </si>
+  <si>
+    <t>alibesli</t>
+  </si>
+  <si>
+    <t>ali@abc.com</t>
+  </si>
+  <si>
+    <t>aynizeliha</t>
+  </si>
+  <si>
+    <t>besli7</t>
+  </si>
+  <si>
+    <t>aynizelihabesli</t>
+  </si>
+  <si>
+    <t>muhammed</t>
+  </si>
+  <si>
+    <t>besli8</t>
+  </si>
+  <si>
+    <t>muhammedbesli</t>
+  </si>
+  <si>
+    <t>muhammed@abc.com</t>
+  </si>
   <si>
     <t>ahmet</t>
   </si>
@@ -68,7 +173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -88,6 +193,132 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
